--- a/simpleide/inst-interpreter/inst.xlsx
+++ b/simpleide/inst-interpreter/inst.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25560" windowHeight="12450" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="12720" windowHeight="12262" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet0" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,15 +27,16 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -48,6 +49,28 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -56,14 +79,69 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -77,25 +155,8 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -104,14 +165,6 @@
       <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,59 +175,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,187 +185,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,8 +382,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,30 +403,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -438,17 +414,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,141 +441,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -921,7 +921,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>

--- a/simpleide/inst-interpreter/inst.xlsx
+++ b/simpleide/inst-interpreter/inst.xlsx
@@ -937,7 +937,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>inst_add_w</t>
+          <t>_add_w</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>inst_sub_w</t>
+          <t>_sub_w</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -977,7 +977,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>inst_slt</t>
+          <t>_slt</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -997,7 +997,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>inst_sltu</t>
+          <t>_sltu</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>inst_nor</t>
+          <t>_nor</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -1037,7 +1037,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>inst_and</t>
+          <t>_and</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -1057,7 +1057,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>inst_or</t>
+          <t>_or</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>inst_xor</t>
+          <t>_xor</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>inst_mul_w</t>
+          <t>_mul_w</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1117,7 +1117,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>inst_sll_w</t>
+          <t>_sll_w</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>inst_srl_w</t>
+          <t>_srl_w</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>inst_sra_w</t>
+          <t>_sra_w</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>inst_srai_w</t>
+          <t>_srai_w</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>inst_srli_w</t>
+          <t>_srli_w</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>inst_slli_w</t>
+          <t>_slli_w</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1237,7 +1237,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>inst_slti</t>
+          <t>_slti</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>inst_sltui</t>
+          <t>_sltui</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -1277,7 +1277,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>inst_addi_w</t>
+          <t>_addi_w</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1297,7 +1297,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>inst_andi</t>
+          <t>_andi</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1317,7 +1317,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>inst_ori</t>
+          <t>_ori</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>inst_xori</t>
+          <t>_xori</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>inst_ld_b</t>
+          <t>_ld_b</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>inst_ld_h</t>
+          <t>_ld_h</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>inst_ld_w</t>
+          <t>_ld_w</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>inst_st_b</t>
+          <t>_st_b</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>inst_st_h</t>
+          <t>_st_h</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1457,7 +1457,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>inst_st_w</t>
+          <t>_st_w</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1477,7 +1477,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>inst_ld_bu</t>
+          <t>_ld_bu</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>inst_ld_hu</t>
+          <t>_ld_hu</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1517,7 +1517,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>inst_lu12i_w</t>
+          <t>_lu12i_w</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1537,7 +1537,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>inst_pcaddu12i</t>
+          <t>_pcaddu12i</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>inst_jirl</t>
+          <t>_jirl</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>inst_b</t>
+          <t>_b</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1597,7 +1597,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>inst_bl</t>
+          <t>_bl</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>inst_beq</t>
+          <t>_beq</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -1637,7 +1637,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>inst_bne</t>
+          <t>_bne</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1657,7 +1657,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>inst_blt</t>
+          <t>_blt</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>inst_bge</t>
+          <t>_bge</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1697,7 +1697,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>inst_bltu</t>
+          <t>_bltu</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -1717,7 +1717,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>inst_bgeu</t>
+          <t>_bgeu</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">

--- a/simpleide/inst-interpreter/inst.xlsx
+++ b/simpleide/inst-interpreter/inst.xlsx
@@ -27,16 +27,22 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -49,15 +55,8 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -66,12 +65,44 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -79,8 +110,7 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,15 +127,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,7 +135,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,14 +148,7 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -148,15 +163,8 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -167,14 +175,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -182,6 +182,84 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -191,7 +269,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,169 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,8 +382,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,6 +403,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -418,17 +433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,6 +447,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,167 +476,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -918,54 +926,94 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col width="25.1428571428571" customWidth="1" style="1" min="1" max="1"/>
-    <col width="28.7142857142857" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.142857142857141" customWidth="1" min="3" max="3"/>
-    <col width="9.142857142857141" customWidth="1" style="1" min="4" max="4"/>
+    <col width="28.7142857142857" customWidth="1" style="2" min="2" max="2"/>
+    <col width="9.142857142857141" customWidth="1" style="1" min="3" max="4"/>
     <col width="9.800000000000001" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.142857142857141" customWidth="1" style="1" min="6" max="16384"/>
+    <col width="9.142857142857141" customWidth="1" style="1" min="6" max="7"/>
+    <col width="21.0095238095238" customWidth="1" style="1" min="8" max="8"/>
+    <col width="22.647619047619" customWidth="1" style="1" min="9" max="9"/>
+    <col width="27.4380952380952" customWidth="1" style="1" min="10" max="10"/>
+    <col width="18.2952380952381" customWidth="1" style="1" min="11" max="11"/>
+    <col width="18.8666666666667" customWidth="1" style="1" min="12" max="12"/>
+    <col width="9.142857142857141" customWidth="1" style="1" min="13" max="17"/>
+    <col width="9.142857142857141" customWidth="1" style="3" min="18" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>_add_w</t>
+          <t>inst name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>00000000000100000</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rf_we</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rf_oe1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rf_oe2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rf_oe2_is_rd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>alu_in1_is_pc</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sel_alu_in2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>_sub_w</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>00000000000100010</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>_add_w</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>00000000000100000</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -973,19 +1021,51 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>_slt</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>00000000000100100</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>_sub_w</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>00000000000100010</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -993,79 +1073,207 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>_sltu</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>00000000000100101</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+          <t>_slt</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>00000000000100100</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>_nor</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>00000000000101000</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+          <t>_sltu</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>00000000000100101</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>_and</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>00000000000101001</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+          <t>_nor</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>00000000000101000</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>_or</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>00000000000101010</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>_and</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>00000000000101001</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -1073,19 +1281,51 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>_xor</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>00000000000101011</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>_or</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>00000000000101010</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1093,19 +1333,51 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>_mul_w</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>00000000000111000</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>_xor</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>00000000000101011</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1113,19 +1385,51 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>_sll_w</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>00000000000101110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>_mul_w</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>00000000000111000</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1133,79 +1437,207 @@
           <t>R</t>
         </is>
       </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>_srl_w</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>00000000000101111</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+          <t>_sll_w</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>00000000000101110</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>_sra_w</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>00000000000110000</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+          <t>_srl_w</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>00000000000101111</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>_srai_w</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>00000000010010001</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+          <t>_sra_w</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>00000000000110000</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>UI5</t>
-        </is>
-      </c>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_reg</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>_srli_w</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>00000000010001001</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>_srai_w</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>00000000010010001</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -1213,19 +1645,51 @@
           <t>UI5</t>
         </is>
       </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>_slli_w</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>00000000010000001</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>_srli_w</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>00000000010001001</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -1233,19 +1697,51 @@
           <t>UI5</t>
         </is>
       </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>_slti</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>0000001000</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>_slli_w</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>00000000010000001</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -1253,39 +1749,103 @@
           <t>UI5</t>
         </is>
       </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>_sltui</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>0000001001</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+          <t>_slti</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>0000001000</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>SI12</t>
-        </is>
-      </c>
+          <t>UI5</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>_addi_w</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>0000001010</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+          <t>_sltui</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>0000001001</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -1293,39 +1853,103 @@
           <t>SI12</t>
         </is>
       </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>_andi</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>0000001101</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+          <t>_addi_w</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>0000001010</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>UI12</t>
-        </is>
-      </c>
+          <t>SI12</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="n"/>
+      <c r="Q19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>_ori</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>0000001110</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+          <t>_andi</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>0000001101</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -1333,19 +1957,51 @@
           <t>UI12</t>
         </is>
       </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P20" s="3" t="n"/>
+      <c r="Q20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>_xori</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>0000001111</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+          <t>_ori</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>0000001110</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -1353,79 +2009,207 @@
           <t>UI12</t>
         </is>
       </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P21" s="3" t="n"/>
+      <c r="Q21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>_ld_b</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>0010100000</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
+          <t>_xori</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>0000001111</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>SI12</t>
-        </is>
-      </c>
+          <t>UI12</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="n"/>
+      <c r="Q22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>_ld_h</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>0010100001</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
+          <t>_ld_b</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>0010100000</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
           <t>SI12</t>
         </is>
       </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="n"/>
+      <c r="Q23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>_ld_w</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>0010100010</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
+          <t>_ld_h</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>0010100001</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
           <t>SI12</t>
         </is>
       </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="n"/>
+      <c r="Q24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>_st_b</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>0010100100</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+          <t>_ld_w</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>0010100010</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -1433,79 +2217,207 @@
           <t>SI12</t>
         </is>
       </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="n"/>
+      <c r="Q25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>_st_h</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>0010100101</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
+          <t>_st_b</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>0010100100</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
           <t>SI12</t>
         </is>
       </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="n"/>
+      <c r="Q26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>_st_w</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>0010100110</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
+          <t>_st_h</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>0010100101</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
           <t>SI12</t>
         </is>
       </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P27" s="3" t="n"/>
+      <c r="Q27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>_ld_bu</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>0010101000</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
+          <t>_st_w</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>0010100110</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
           <t>SI12</t>
         </is>
       </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="n"/>
+      <c r="Q28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>_ld_hu</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>0010101001</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+          <t>_ld_bu</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>0010101000</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="inlineStr">
@@ -1513,39 +2425,103 @@
           <t>SI12</t>
         </is>
       </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" s="3" t="n"/>
+      <c r="Q29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>_lu12i_w</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>0001010</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
+          <t>_ld_hu</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>0010101001</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>SI20</t>
-        </is>
-      </c>
+          <t>SI12</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="n"/>
+      <c r="Q30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>_pcaddu12i</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>0001110</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+          <t>_lu12i_w</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>0001010</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -1553,39 +2529,103 @@
           <t>SI20</t>
         </is>
       </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P31" s="3" t="n"/>
+      <c r="Q31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>_jirl</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>010011</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+          <t>_pcaddu12i</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>0001110</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>SI26</t>
-        </is>
-      </c>
+          <t>SI20</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_imm</t>
+        </is>
+      </c>
+      <c r="P32" s="3" t="n"/>
+      <c r="Q32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>_b</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+          <t>_jirl</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>010011</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -1593,19 +2633,51 @@
           <t>SI26</t>
         </is>
       </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_four</t>
+        </is>
+      </c>
+      <c r="P33" s="3" t="n"/>
+      <c r="Q33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>_bl</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>010101</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+          <t>_b</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>010100</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -1613,39 +2685,103 @@
           <t>SI26</t>
         </is>
       </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="n"/>
+      <c r="Q34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>_beq</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>010110</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+          <t>_bl</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>010101</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>SI16</t>
-        </is>
-      </c>
+          <t>SI26</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>alu_in2_is_four</t>
+        </is>
+      </c>
+      <c r="P35" s="3" t="n"/>
+      <c r="Q35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>_bne</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>010111</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+          <t>_beq</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="inlineStr">
@@ -1653,19 +2789,51 @@
           <t>SI16</t>
         </is>
       </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="n"/>
+      <c r="Q36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>_blt</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>011000</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+          <t>_bne</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -1673,39 +2841,103 @@
           <t>SI16</t>
         </is>
       </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P37" s="3" t="n"/>
+      <c r="Q37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>_bge</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>011001</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
+          <t>_blt</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
           <t>SI16</t>
         </is>
       </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P38" s="3" t="n"/>
+      <c r="Q38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>_bltu</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>011010</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+          <t>_bge</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -1713,26 +2945,142 @@
           <t>SI16</t>
         </is>
       </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P39" s="3" t="n"/>
+      <c r="Q39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>_bltu</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>011010</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>SI16</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P40" s="3" t="n"/>
+      <c r="Q40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
           <t>_bgeu</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>011011</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="C41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>SI16</t>
         </is>
       </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P41" s="3" t="n"/>
+      <c r="Q41" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/simpleide/inst-interpreter/inst.xlsx
+++ b/simpleide/inst-interpreter/inst.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="12720" windowHeight="12262" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12667" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet0" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,17 +47,18 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,21 +72,6 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -93,17 +79,31 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -124,10 +124,10 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,14 +135,30 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,23 +171,7 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -191,13 +191,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +323,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,151 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,36 +384,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,8 +405,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -451,13 +423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,135 +452,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
@@ -931,7 +931,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H27" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H28" s="1" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H29" s="1" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">

--- a/simpleide/inst-interpreter/inst.xlsx
+++ b/simpleide/inst-interpreter/inst.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12667" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12675" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet0" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,15 +50,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,14 +58,20 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,8 +85,48 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -102,15 +140,14 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -125,53 +162,16 @@
     <font>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -197,13 +197,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,19 +329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,85 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,43 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,67 +388,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,87 +420,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
@@ -564,44 +564,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
@@ -929,9 +929,9 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -1001,6 +1001,11 @@
           <t>sel_alu_in2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>alu_op</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1051,6 +1056,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
       <c r="P2" s="3" t="n"/>
       <c r="Q2" s="3" t="n"/>
     </row>
@@ -1103,6 +1113,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
       <c r="P3" s="3" t="n"/>
       <c r="Q3" s="3" t="n"/>
     </row>
@@ -1155,6 +1170,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>slt</t>
+        </is>
+      </c>
       <c r="P4" s="3" t="n"/>
       <c r="Q4" s="3" t="n"/>
     </row>
@@ -1207,6 +1227,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>sltu</t>
+        </is>
+      </c>
       <c r="P5" s="3" t="n"/>
       <c r="Q5" s="3" t="n"/>
     </row>
@@ -1259,6 +1284,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>nor</t>
+        </is>
+      </c>
       <c r="P6" s="3" t="n"/>
       <c r="Q6" s="3" t="n"/>
     </row>
@@ -1311,6 +1341,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
       <c r="P7" s="3" t="n"/>
       <c r="Q7" s="3" t="n"/>
     </row>
@@ -1363,6 +1398,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
       <c r="P8" s="3" t="n"/>
       <c r="Q8" s="3" t="n"/>
     </row>
@@ -1415,6 +1455,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>xor</t>
+        </is>
+      </c>
       <c r="P9" s="3" t="n"/>
       <c r="Q9" s="3" t="n"/>
     </row>
@@ -1467,6 +1512,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>mul</t>
+        </is>
+      </c>
       <c r="P10" s="3" t="n"/>
       <c r="Q10" s="3" t="n"/>
     </row>
@@ -1519,6 +1569,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>sll</t>
+        </is>
+      </c>
       <c r="P11" s="3" t="n"/>
       <c r="Q11" s="3" t="n"/>
     </row>
@@ -1571,6 +1626,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>srl</t>
+        </is>
+      </c>
       <c r="P12" s="3" t="n"/>
       <c r="Q12" s="3" t="n"/>
     </row>
@@ -1623,6 +1683,11 @@
           <t>alu_in2_is_reg</t>
         </is>
       </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>sra</t>
+        </is>
+      </c>
       <c r="P13" s="3" t="n"/>
       <c r="Q13" s="3" t="n"/>
     </row>
@@ -1675,6 +1740,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>sra</t>
+        </is>
+      </c>
       <c r="P14" s="3" t="n"/>
       <c r="Q14" s="3" t="n"/>
     </row>
@@ -1727,6 +1797,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>srl</t>
+        </is>
+      </c>
       <c r="P15" s="3" t="n"/>
       <c r="Q15" s="3" t="n"/>
     </row>
@@ -1779,6 +1854,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>sll</t>
+        </is>
+      </c>
       <c r="P16" s="3" t="n"/>
       <c r="Q16" s="3" t="n"/>
     </row>
@@ -1831,6 +1911,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>slt</t>
+        </is>
+      </c>
       <c r="P17" s="3" t="n"/>
       <c r="Q17" s="3" t="n"/>
     </row>
@@ -1883,6 +1968,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>sltu</t>
+        </is>
+      </c>
       <c r="P18" s="3" t="n"/>
       <c r="Q18" s="3" t="n"/>
     </row>
@@ -1935,6 +2025,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
       <c r="P19" s="3" t="n"/>
       <c r="Q19" s="3" t="n"/>
     </row>
@@ -1987,6 +2082,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
       <c r="P20" s="3" t="n"/>
       <c r="Q20" s="3" t="n"/>
     </row>
@@ -2039,6 +2139,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
       <c r="P21" s="3" t="n"/>
       <c r="Q21" s="3" t="n"/>
     </row>
@@ -2091,6 +2196,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>xor</t>
+        </is>
+      </c>
       <c r="P22" s="3" t="n"/>
       <c r="Q22" s="3" t="n"/>
     </row>
@@ -2143,6 +2253,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P23" s="3" t="n"/>
       <c r="Q23" s="3" t="n"/>
     </row>
@@ -2195,6 +2310,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P24" s="3" t="n"/>
       <c r="Q24" s="3" t="n"/>
     </row>
@@ -2247,6 +2367,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P25" s="3" t="n"/>
       <c r="Q25" s="3" t="n"/>
     </row>
@@ -2299,6 +2424,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P26" s="3" t="n"/>
       <c r="Q26" s="3" t="n"/>
     </row>
@@ -2351,6 +2481,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P27" s="3" t="n"/>
       <c r="Q27" s="3" t="n"/>
     </row>
@@ -2403,6 +2538,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P28" s="3" t="n"/>
       <c r="Q28" s="3" t="n"/>
     </row>
@@ -2455,6 +2595,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P29" s="3" t="n"/>
       <c r="Q29" s="3" t="n"/>
     </row>
@@ -2507,6 +2652,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P30" s="3" t="n"/>
       <c r="Q30" s="3" t="n"/>
     </row>
@@ -2559,6 +2709,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>lui</t>
+        </is>
+      </c>
       <c r="P31" s="3" t="n"/>
       <c r="Q31" s="3" t="n"/>
     </row>
@@ -2611,6 +2766,11 @@
           <t>alu_in2_is_imm</t>
         </is>
       </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
       <c r="P32" s="3" t="n"/>
       <c r="Q32" s="3" t="n"/>
     </row>
@@ -2663,6 +2823,11 @@
           <t>alu_in2_is_four</t>
         </is>
       </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
       <c r="P33" s="3" t="n"/>
       <c r="Q33" s="3" t="n"/>
     </row>
@@ -2715,6 +2880,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P34" s="3" t="n"/>
       <c r="Q34" s="3" t="n"/>
     </row>
@@ -2767,6 +2937,11 @@
           <t>alu_in2_is_four</t>
         </is>
       </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
       <c r="P35" s="3" t="n"/>
       <c r="Q35" s="3" t="n"/>
     </row>
@@ -2819,6 +2994,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P36" s="3" t="n"/>
       <c r="Q36" s="3" t="n"/>
     </row>
@@ -2871,6 +3051,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P37" s="3" t="n"/>
       <c r="Q37" s="3" t="n"/>
     </row>
@@ -2923,6 +3108,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P38" s="3" t="n"/>
       <c r="Q38" s="3" t="n"/>
     </row>
@@ -2975,6 +3165,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P39" s="3" t="n"/>
       <c r="Q39" s="3" t="n"/>
     </row>
@@ -3027,6 +3222,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="n"/>
     </row>
@@ -3075,6 +3275,11 @@
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
